--- a/data/trans_orig/P78A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>101597</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>75691</v>
+        <v>78506</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>128700</v>
+        <v>132415</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3492070302542243</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2601622903342797</v>
+        <v>0.2698384082012886</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4423652329393369</v>
+        <v>0.4551327827250532</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -762,19 +762,19 @@
         <v>79005</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59550</v>
+        <v>58494</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98944</v>
+        <v>101315</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3015442183805789</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2272888298221492</v>
+        <v>0.2232571029907138</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3776457071720588</v>
+        <v>0.3866961697784415</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -783,19 +783,19 @@
         <v>180602</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>152390</v>
+        <v>149085</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>213527</v>
+        <v>216573</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3266227587132478</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2756004844444715</v>
+        <v>0.2696237451835762</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3861682776517793</v>
+        <v>0.3916759481368149</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>189340</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>162237</v>
+        <v>158522</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>215246</v>
+        <v>212431</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6507929697457756</v>
+        <v>0.6507929697457754</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5576347670606631</v>
+        <v>0.5448672172749468</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7398377096657203</v>
+        <v>0.7301615917987113</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>99</v>
@@ -833,19 +833,19 @@
         <v>182996</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>163057</v>
+        <v>160686</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>202451</v>
+        <v>203507</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6984557816194211</v>
+        <v>0.698455781619421</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6223542928279415</v>
+        <v>0.6133038302215584</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7727111701778507</v>
+        <v>0.7767428970092862</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>175</v>
@@ -854,19 +854,19 @@
         <v>372336</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>339411</v>
+        <v>336365</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>400548</v>
+        <v>403853</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.673377241286752</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6138317223482207</v>
+        <v>0.6083240518631848</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7243995155555285</v>
+        <v>0.7303762548164237</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>73445</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62172</v>
+        <v>61923</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80956</v>
+        <v>80943</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.850482848841471</v>
+        <v>0.8504828488414707</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7199465465810578</v>
+        <v>0.7170538548244568</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9374620449709077</v>
+        <v>0.9373080427473161</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>129</v>
@@ -979,19 +979,19 @@
         <v>140349</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>125221</v>
+        <v>124868</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>152565</v>
+        <v>153258</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7441927324398933</v>
+        <v>0.7441927324398937</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6639784572991865</v>
+        <v>0.6621071041738836</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8089665786727872</v>
+        <v>0.8126409006577299</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>177</v>
@@ -1000,19 +1000,19 @@
         <v>213794</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>196123</v>
+        <v>198795</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>229944</v>
+        <v>228897</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7775768181683138</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7133080572127185</v>
+        <v>0.7230262257792632</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8363165818536858</v>
+        <v>0.8325055856450243</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>12912</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5401</v>
+        <v>5414</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24185</v>
+        <v>24434</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1495171511585291</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0625379550290923</v>
+        <v>0.06269195725268389</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2800534534189418</v>
+        <v>0.2829461451755431</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>37</v>
@@ -1050,19 +1050,19 @@
         <v>48243</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36027</v>
+        <v>35334</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>63371</v>
+        <v>63724</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2558072675601065</v>
+        <v>0.2558072675601066</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1910334213272129</v>
+        <v>0.1873590993422709</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3360215427008133</v>
+        <v>0.3378928958261168</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>44</v>
@@ -1071,19 +1071,19 @@
         <v>61155</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>45005</v>
+        <v>46052</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>78826</v>
+        <v>76154</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2224231818316862</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1636834181463139</v>
+        <v>0.1674944143549756</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2866919427872816</v>
+        <v>0.276973774220737</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>78940</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71693</v>
+        <v>71609</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82438</v>
+        <v>82899</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9265720589787155</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8415018858072068</v>
+        <v>0.840514891901877</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9676329271347943</v>
+        <v>0.9730428549542499</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>243</v>
@@ -1196,19 +1196,19 @@
         <v>181062</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>170139</v>
+        <v>170191</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>191240</v>
+        <v>190785</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8077085104627786</v>
+        <v>0.8077085104627785</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.758977855145362</v>
+        <v>0.7592136609444992</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8531095376208793</v>
+        <v>0.8510786253584087</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>312</v>
@@ -1217,19 +1217,19 @@
         <v>260003</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>247129</v>
+        <v>247657</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>270472</v>
+        <v>271097</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.840442310661956</v>
+        <v>0.8404423106619561</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7988292937600991</v>
+        <v>0.8005370030217114</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8742852314874363</v>
+        <v>0.87630547790935</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>6256</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2758</v>
+        <v>2297</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13503</v>
+        <v>13587</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07342794102128447</v>
+        <v>0.07342794102128446</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03236707286520554</v>
+        <v>0.02695714504574992</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1584981141927931</v>
+        <v>0.1594851080981229</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>56</v>
@@ -1267,19 +1267,19 @@
         <v>43106</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32928</v>
+        <v>33383</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>54029</v>
+        <v>53977</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1922914895372215</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1468904623791206</v>
+        <v>0.1489213746415913</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2410221448546378</v>
+        <v>0.2407863390555008</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>62</v>
@@ -1288,19 +1288,19 @@
         <v>49361</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>38892</v>
+        <v>38267</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>62235</v>
+        <v>61707</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.159557689338044</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1257147685125637</v>
+        <v>0.12369452209065</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2011707062399008</v>
+        <v>0.1994629969782887</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>142011</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>133351</v>
+        <v>133909</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>147439</v>
+        <v>147474</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9280582407080016</v>
+        <v>0.9280582407080018</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8714581153347165</v>
+        <v>0.875111055726731</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9635272464062987</v>
+        <v>0.963759303854628</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>327</v>
@@ -1413,19 +1413,19 @@
         <v>212120</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>199301</v>
+        <v>199322</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>223939</v>
+        <v>223590</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7366163716464439</v>
+        <v>0.736616371646444</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6921002513208702</v>
+        <v>0.6921746786120945</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7776618268890912</v>
+        <v>0.77644687502841</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>458</v>
@@ -1434,19 +1434,19 @@
         <v>354131</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>339482</v>
+        <v>340000</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>367457</v>
+        <v>368720</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8030457618252479</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7698270688386593</v>
+        <v>0.771002171282354</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8332649820395087</v>
+        <v>0.8361279547712683</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>11009</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5581</v>
+        <v>5546</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19669</v>
+        <v>19111</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07194175929199818</v>
+        <v>0.07194175929199823</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03647275359370156</v>
+        <v>0.03624069614537206</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1285418846652836</v>
+        <v>0.124888944273269</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>113</v>
@@ -1484,19 +1484,19 @@
         <v>75845</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64026</v>
+        <v>64375</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>88664</v>
+        <v>88643</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.263383628353556</v>
+        <v>0.2633836283535561</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2223381731109087</v>
+        <v>0.2235531249715894</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3078997486791298</v>
+        <v>0.3078253213879053</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>123</v>
@@ -1505,19 +1505,19 @@
         <v>86854</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>73528</v>
+        <v>72265</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>101503</v>
+        <v>100985</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1969542381747521</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1667350179604911</v>
+        <v>0.1638720452287322</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2301729311613409</v>
+        <v>0.228997828717646</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>273390</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>266674</v>
+        <v>266365</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>277090</v>
+        <v>276758</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.979514863970408</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9554495708620655</v>
+        <v>0.954344643025189</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9927683790099914</v>
+        <v>0.9915795119690899</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>518</v>
@@ -1630,19 +1630,19 @@
         <v>315675</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>303495</v>
+        <v>303179</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>326648</v>
+        <v>327933</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8224763560495857</v>
+        <v>0.8224763560495856</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7907436073448817</v>
+        <v>0.7899187429488064</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8510659407382499</v>
+        <v>0.8544158037931402</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>818</v>
@@ -1651,19 +1651,19 @@
         <v>589065</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>574302</v>
+        <v>576286</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>600744</v>
+        <v>602051</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8885942170648887</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8663242964289997</v>
+        <v>0.8693169865080074</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9062118088074239</v>
+        <v>0.9081839138050775</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>5718</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2018</v>
+        <v>2350</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12434</v>
+        <v>12743</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02048513602959224</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007231620990008662</v>
+        <v>0.008420488030910103</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04455042913793445</v>
+        <v>0.04565535697481055</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>108</v>
@@ -1701,19 +1701,19 @@
         <v>68135</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57162</v>
+        <v>55877</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>80315</v>
+        <v>80631</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1775236439504144</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1489340592617502</v>
+        <v>0.1455841962068599</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2092563926551186</v>
+        <v>0.210081257051194</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>114</v>
@@ -1722,19 +1722,19 @@
         <v>73853</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>62174</v>
+        <v>60867</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>88616</v>
+        <v>86632</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1114057829351113</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.093788191192576</v>
+        <v>0.09181608619492219</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1336757035710004</v>
+        <v>0.1306830134919925</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>384890</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>380850</v>
+        <v>380806</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>386843</v>
+        <v>386841</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.9934444841942576</v>
+        <v>0.9934444841942575</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9830151345882824</v>
+        <v>0.9829017420113079</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9984842458719697</v>
+        <v>0.9984794581272488</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>736</v>
@@ -1847,19 +1847,19 @@
         <v>389542</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>380819</v>
+        <v>381210</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>396688</v>
+        <v>396377</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.9291336422531367</v>
+        <v>0.9291336422531365</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9083279820873249</v>
+        <v>0.9092593003887894</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9461769039406432</v>
+        <v>0.9454354460280056</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1274</v>
@@ -1868,19 +1868,19 @@
         <v>774432</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>765713</v>
+        <v>765682</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>781650</v>
+        <v>782048</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.9600205673543907</v>
+        <v>0.960020567354391</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9492115187340162</v>
+        <v>0.949173906730711</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9689678360578251</v>
+        <v>0.9694609066823894</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>2540</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6580</v>
+        <v>6624</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.006555515805742512</v>
+        <v>0.006555515805742511</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001515754128030298</v>
+        <v>0.001520541872751238</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01698486541171758</v>
+        <v>0.01709825798869207</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>54</v>
@@ -1918,19 +1918,19 @@
         <v>29711</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22565</v>
+        <v>22876</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38434</v>
+        <v>38043</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07086635774686341</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0538230960593567</v>
+        <v>0.05456455397199406</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09167201791267485</v>
+        <v>0.09074069961120927</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>58</v>
@@ -1939,19 +1939,19 @@
         <v>32251</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>25033</v>
+        <v>24635</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40970</v>
+        <v>41001</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.03997943264560915</v>
+        <v>0.03997943264560916</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03103216394217446</v>
+        <v>0.03053909331761058</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05078848126598385</v>
+        <v>0.05082609326928897</v>
       </c>
     </row>
     <row r="21">
@@ -2043,16 +2043,16 @@
         <v>307203</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>304282</v>
+        <v>303865</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>308382</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9961776215685042</v>
+        <v>0.9961776215685044</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9867056798289813</v>
+        <v>0.9853520034134172</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -2064,19 +2064,19 @@
         <v>387071</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>374027</v>
+        <v>373787</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>399096</v>
+        <v>399457</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.836210653181899</v>
+        <v>0.8362106531818992</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8080316206280206</v>
+        <v>0.80751219011477</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8621878363032588</v>
+        <v>0.8629692328779305</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1203</v>
@@ -2085,19 +2085,19 @@
         <v>694273</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>679987</v>
+        <v>679841</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>707059</v>
+        <v>706865</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9001713818418947</v>
+        <v>0.9001713818418949</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8816485744478051</v>
+        <v>0.8814588944629657</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9167488225348632</v>
+        <v>0.9164974457577256</v>
       </c>
     </row>
     <row r="23">
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4100</v>
+        <v>4517</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003822378431495532</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01329432017101959</v>
+        <v>0.01464799658658296</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>129</v>
@@ -2135,19 +2135,19 @@
         <v>75816</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>63791</v>
+        <v>63430</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>88860</v>
+        <v>89100</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1637893468181009</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1378121636967414</v>
+        <v>0.1370307671220694</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1919683793719793</v>
+        <v>0.1924878098852298</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>131</v>
@@ -2156,19 +2156,19 @@
         <v>76995</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>64209</v>
+        <v>64403</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>91281</v>
+        <v>91427</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09982861815810516</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0832511774651368</v>
+        <v>0.08350255424227424</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1183514255521948</v>
+        <v>0.1185411055370342</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>1361478</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1317399</v>
+        <v>1315105</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1403178</v>
+        <v>1402278</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.8560439109786249</v>
+        <v>0.856043910978625</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.82832889431629</v>
+        <v>0.8268864807070287</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8822633300594558</v>
+        <v>0.8816971427279654</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2749</v>
@@ -2281,19 +2281,19 @@
         <v>1704824</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1666162</v>
+        <v>1660385</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1748729</v>
+        <v>1743620</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.7649490569367212</v>
+        <v>0.7649490569367213</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7476017019787169</v>
+        <v>0.7450095357935357</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7846493198523155</v>
+        <v>0.7823568478048022</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4331</v>
@@ -2302,19 +2302,19 @@
         <v>3066302</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3005159</v>
+        <v>3009035</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3119360</v>
+        <v>3126619</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.8028846296166554</v>
+        <v>0.8028846296166555</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7868749233761859</v>
+        <v>0.7878898394284281</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8167774255038026</v>
+        <v>0.8186783611274269</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>228952</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>187252</v>
+        <v>188152</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>273031</v>
+        <v>275325</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1439560890213752</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1177366699405442</v>
+        <v>0.1183028572720348</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.17167110568371</v>
+        <v>0.1731135192929713</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>596</v>
@@ -2352,19 +2352,19 @@
         <v>523852</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>479947</v>
+        <v>485056</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>562514</v>
+        <v>568291</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2350509430632788</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2153506801476844</v>
+        <v>0.2176431521951977</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2523982980212833</v>
+        <v>0.2549904642064643</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>707</v>
@@ -2373,19 +2373,19 @@
         <v>752804</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>699746</v>
+        <v>692487</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>813947</v>
+        <v>810071</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1971153703833444</v>
+        <v>0.1971153703833445</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1832225744961978</v>
+        <v>0.1813216388725731</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2131250766238144</v>
+        <v>0.2121101605715718</v>
       </c>
     </row>
     <row r="27">
